--- a/Mesa Interactiva V2 (Respuestas).xlsx
+++ b/Mesa Interactiva V2 (Respuestas).xlsx
@@ -5,24 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\Documents\DBM\Proyecto1Parcial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E537132C-1772-4C77-A380-1E5966D8226D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3B24FEE-1762-49DE-BF56-025EC2BAEA3D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Respuestas de formulario 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">'Respuestas de formulario 1'!$H$1:$W$1</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'Respuestas de formulario 1'!$H$2:$W$2</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'Respuestas de formulario 1'!$H$3:$W$3</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'Respuestas de formulario 1'!$H$4:$W$4</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">'Respuestas de formulario 1'!$H$5:$W$5</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">'Respuestas de formulario 1'!$H$6:$W$6</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -1880,16 +1872,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>400051</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>152399</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>904876</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>76199</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2219,8 +2211,8 @@
   </sheetPr>
   <dimension ref="A1:Y16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
@@ -2681,7 +2673,7 @@
         <v>2.0736441353327724</v>
       </c>
       <c r="J8">
-        <f t="shared" ref="J8:X8" si="0">STDEV(J2:J6)</f>
+        <f t="shared" ref="J8:W8" si="0">STDEV(J2:J6)</f>
         <v>1</v>
       </c>
       <c r="K8">

--- a/Mesa Interactiva V2 (Respuestas).xlsx
+++ b/Mesa Interactiva V2 (Respuestas).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\Documents\DBM\Proyecto1Parcial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3B24FEE-1762-49DE-BF56-025EC2BAEA3D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDDDBF83-EEDB-416B-A65F-1170CFA107AA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="46">
   <si>
     <t>Timestamp</t>
   </si>
@@ -162,6 +162,9 @@
   </si>
   <si>
     <t>Desviación estándar (9-16)</t>
+  </si>
+  <si>
+    <t>Promedio total</t>
   </si>
 </sst>
 </file>
@@ -239,6 +242,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-MX"/>
+              <a:t>Encuesta Mesa interactiva</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -271,35 +299,24 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:ln w="25400" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
               <a:noFill/>
-              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
             <c:strRef>
               <c:f>'Respuestas de formulario 1'!$H$1:$W$1</c:f>
               <c:strCache>
@@ -354,8 +371,8 @@
                 </c:pt>
               </c:strCache>
             </c:strRef>
-          </c:xVal>
-          <c:yVal>
+          </c:cat>
+          <c:val>
             <c:numRef>
               <c:f>'Respuestas de formulario 1'!$H$2:$W$2</c:f>
               <c:numCache>
@@ -411,8 +428,7 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
+          </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-2E93-49F0-9B28-621945C78219}"/>
@@ -423,28 +439,16 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:spPr>
-            <a:ln w="25400" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
               <a:noFill/>
-              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
             <c:strRef>
               <c:f>'Respuestas de formulario 1'!$H$1:$W$1</c:f>
               <c:strCache>
@@ -499,8 +503,8 @@
                 </c:pt>
               </c:strCache>
             </c:strRef>
-          </c:xVal>
-          <c:yVal>
+          </c:cat>
+          <c:val>
             <c:numRef>
               <c:f>'Respuestas de formulario 1'!$H$3:$W$3</c:f>
               <c:numCache>
@@ -556,8 +560,7 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
+          </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-2E93-49F0-9B28-621945C78219}"/>
@@ -568,28 +571,16 @@
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:spPr>
-            <a:ln w="25400" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
               <a:noFill/>
-              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
             <c:strRef>
               <c:f>'Respuestas de formulario 1'!$H$1:$W$1</c:f>
               <c:strCache>
@@ -644,8 +635,8 @@
                 </c:pt>
               </c:strCache>
             </c:strRef>
-          </c:xVal>
-          <c:yVal>
+          </c:cat>
+          <c:val>
             <c:numRef>
               <c:f>'Respuestas de formulario 1'!$H$4:$W$4</c:f>
               <c:numCache>
@@ -701,8 +692,7 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
+          </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-2E93-49F0-9B28-621945C78219}"/>
@@ -713,28 +703,16 @@
           <c:idx val="3"/>
           <c:order val="3"/>
           <c:spPr>
-            <a:ln w="25400" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
               <a:noFill/>
-              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
             <c:strRef>
               <c:f>'Respuestas de formulario 1'!$H$1:$W$1</c:f>
               <c:strCache>
@@ -789,8 +767,8 @@
                 </c:pt>
               </c:strCache>
             </c:strRef>
-          </c:xVal>
-          <c:yVal>
+          </c:cat>
+          <c:val>
             <c:numRef>
               <c:f>'Respuestas de formulario 1'!$H$5:$W$5</c:f>
               <c:numCache>
@@ -846,8 +824,7 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
+          </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-2E93-49F0-9B28-621945C78219}"/>
@@ -858,28 +835,16 @@
           <c:idx val="4"/>
           <c:order val="4"/>
           <c:spPr>
-            <a:ln w="25400" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
               <a:noFill/>
-              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent5"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
             <c:strRef>
               <c:f>'Respuestas de formulario 1'!$H$1:$W$1</c:f>
               <c:strCache>
@@ -934,8 +899,8 @@
                 </c:pt>
               </c:strCache>
             </c:strRef>
-          </c:xVal>
-          <c:yVal>
+          </c:cat>
+          <c:val>
             <c:numRef>
               <c:f>'Respuestas de formulario 1'!$H$6:$W$6</c:f>
               <c:numCache>
@@ -991,8 +956,7 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
+          </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-2E93-49F0-9B28-621945C78219}"/>
@@ -1007,10 +971,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
         <c:axId val="538606456"/>
         <c:axId val="538600880"/>
-      </c:scatterChart>
-      <c:valAx>
+      </c:barChart>
+      <c:catAx>
         <c:axId val="538606456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
@@ -1072,19 +1038,14 @@
             </a:p>
           </c:txPr>
         </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
+          <a:ln>
+            <a:noFill/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -1110,8 +1071,11 @@
         </c:txPr>
         <c:crossAx val="538600880"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
+      </c:catAx>
       <c:valAx>
         <c:axId val="538600880"/>
         <c:scaling>
@@ -1194,14 +1158,8 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
+          <a:ln>
+            <a:noFill/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -1227,7 +1185,7 @@
         </c:txPr>
         <c:crossAx val="538606456"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -1238,7 +1196,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
+      <c:legendPos val="b"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1353,7 +1311,7 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -1380,8 +1338,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1482,7 +1440,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:ln w="28575" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -1514,10 +1472,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -1557,23 +1515,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -1678,8 +1635,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1811,20 +1768,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -1838,17 +1794,6 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -1872,16 +1817,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>133349</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1152525</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:colOff>809625</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2209,11 +2154,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Y16"/>
+  <dimension ref="A1:Y17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="S17" sqref="S17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2843,6 +2788,15 @@
         <v>0.56155511801123081</v>
       </c>
     </row>
+    <row r="17" spans="6:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F17" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17">
+        <f>AVERAGE(H9:W9)</f>
+        <v>5.2375000000000007</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
